--- a/VersionRecords/Version3.0.3/版本Bug和特性计划及评审表v3.0.3.xlsx
+++ b/VersionRecords/Version3.0.3/版本Bug和特性计划及评审表v3.0.3.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="60" windowWidth="28695" windowHeight="13005"/>
+    <workbookView xWindow="0" yWindow="60" windowWidth="28695" windowHeight="13005" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="版本3.0.3 新特性|Fix Bug" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="530" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="557" uniqueCount="254">
   <si>
     <t>No</t>
   </si>
@@ -857,10 +857,6 @@
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
-    <t>配置文件修改</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
     <t>上线进行</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
@@ -882,10 +878,6 @@
   </si>
   <si>
     <t>配置文件</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>配置文件修改</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
@@ -911,6 +903,62 @@
   <si>
     <t>3.0.3项目上线准备执行方案
 （预发布环境先验证一遍）</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>请见\Version3.0.3\BS权限配置《新增权限配置表.xlsx》</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>请见“SQL_Scripts”</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>姚海强</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>招行提现接口配置文件</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>冯银鹏</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户权限开关</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>partner pc,app,bs</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>partner pc ,app,</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>连接池配置修改</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>bs,renter,partner,tasktracker</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>详见“Version3.0.3\配置文件\bs,renter,partner,tasktracker新增招行提现配置文件-fengyinpeng.txt”</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>详见“Version3.0.3\配置文件\partner app,partner pc,bs 数值修改_架构组_姚海强.txt”</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>详见“Version3.0.3\配置文件\房东app，pc配置文件说明-姚海强.txt”</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>待执行</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
 </sst>
@@ -1120,7 +1168,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -1250,6 +1298,19 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1271,7 +1332,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1422,23 +1483,11 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="18" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1453,25 +1502,10 @@
     <xf numFmtId="0" fontId="19" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1486,8 +1520,53 @@
     <xf numFmtId="0" fontId="20" fillId="8" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -1844,7 +1923,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T219"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
@@ -7944,284 +8023,385 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="10.25" style="52" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15" style="52" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.75" style="52" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.125" style="52" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="38" style="52" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.125" style="52" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.625" style="52" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.625" style="52" customWidth="1"/>
-    <col min="9" max="9" width="33.625" style="52" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="52"/>
+    <col min="1" max="1" width="10.25" style="50" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15" style="50" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.75" style="50" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.25" style="50" customWidth="1"/>
+    <col min="5" max="5" width="38" style="50" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.125" style="50" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.625" style="50" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.625" style="50" customWidth="1"/>
+    <col min="9" max="9" width="53.625" style="78" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="50"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="20.25" x14ac:dyDescent="0.15">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="63" t="s">
+        <v>239</v>
+      </c>
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="64"/>
+      <c r="H1" s="64"/>
+      <c r="I1" s="64"/>
+    </row>
+    <row r="2" spans="1:9" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A2" s="51" t="s">
+        <v>207</v>
+      </c>
+      <c r="B2" s="51" t="s">
+        <v>208</v>
+      </c>
+      <c r="C2" s="51" t="s">
+        <v>209</v>
+      </c>
+      <c r="D2" s="51" t="s">
+        <v>210</v>
+      </c>
+      <c r="E2" s="51" t="s">
+        <v>211</v>
+      </c>
+      <c r="F2" s="51" t="s">
+        <v>212</v>
+      </c>
+      <c r="G2" s="51" t="s">
+        <v>213</v>
+      </c>
+      <c r="H2" s="51" t="s">
+        <v>214</v>
+      </c>
+      <c r="I2" s="77" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A3" s="52">
+        <v>1</v>
+      </c>
+      <c r="B3" s="52" t="s">
+        <v>216</v>
+      </c>
+      <c r="C3" s="52" t="s">
+        <v>217</v>
+      </c>
+      <c r="D3" s="51" t="s">
+        <v>218</v>
+      </c>
+      <c r="E3" s="51"/>
+      <c r="F3" s="51"/>
+      <c r="G3" s="51"/>
+      <c r="H3" s="51"/>
+      <c r="I3" s="77"/>
+    </row>
+    <row r="4" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A4" s="65">
+        <v>2</v>
+      </c>
+      <c r="B4" s="65" t="s">
+        <v>219</v>
+      </c>
+      <c r="C4" s="68" t="s">
+        <v>220</v>
+      </c>
+      <c r="D4" s="53" t="s">
+        <v>221</v>
+      </c>
+      <c r="E4" s="54"/>
+      <c r="F4" s="55" t="s">
+        <v>222</v>
+      </c>
+      <c r="G4" s="55" t="s">
+        <v>223</v>
+      </c>
+      <c r="H4" s="55"/>
+      <c r="I4" s="53" t="s">
         <v>241</v>
       </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51"/>
-      <c r="G1" s="51"/>
-      <c r="H1" s="51"/>
-      <c r="I1" s="51"/>
-    </row>
-    <row r="2" spans="1:9" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A2" s="53" t="s">
-        <v>207</v>
-      </c>
-      <c r="B2" s="53" t="s">
-        <v>208</v>
-      </c>
-      <c r="C2" s="53" t="s">
-        <v>209</v>
-      </c>
-      <c r="D2" s="53" t="s">
-        <v>210</v>
-      </c>
-      <c r="E2" s="53" t="s">
-        <v>211</v>
-      </c>
-      <c r="F2" s="53" t="s">
-        <v>212</v>
-      </c>
-      <c r="G2" s="53" t="s">
-        <v>213</v>
-      </c>
-      <c r="H2" s="53" t="s">
-        <v>214</v>
-      </c>
-      <c r="I2" s="53" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A3" s="54">
-        <v>1</v>
-      </c>
-      <c r="B3" s="54" t="s">
-        <v>216</v>
-      </c>
-      <c r="C3" s="54" t="s">
-        <v>217</v>
-      </c>
-      <c r="D3" s="53" t="s">
-        <v>218</v>
-      </c>
-      <c r="E3" s="53"/>
-      <c r="F3" s="53"/>
-      <c r="G3" s="53"/>
-      <c r="H3" s="53"/>
-      <c r="I3" s="53"/>
-    </row>
-    <row r="4" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A4" s="55">
-        <v>2</v>
-      </c>
-      <c r="B4" s="55" t="s">
-        <v>219</v>
-      </c>
-      <c r="C4" s="56" t="s">
-        <v>220</v>
-      </c>
-      <c r="D4" s="57" t="s">
-        <v>221</v>
-      </c>
-      <c r="E4" s="58"/>
-      <c r="F4" s="59" t="s">
+    </row>
+    <row r="5" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A5" s="66"/>
+      <c r="B5" s="66"/>
+      <c r="C5" s="69"/>
+      <c r="D5" s="53" t="s">
+        <v>224</v>
+      </c>
+      <c r="E5" s="54"/>
+      <c r="F5" s="55" t="s">
         <v>222</v>
       </c>
-      <c r="G4" s="59" t="s">
+      <c r="G5" s="55" t="s">
         <v>223</v>
       </c>
-      <c r="H4" s="59"/>
-      <c r="I4" s="57"/>
-    </row>
-    <row r="5" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A5" s="60"/>
-      <c r="B5" s="60"/>
-      <c r="C5" s="61"/>
-      <c r="D5" s="57" t="s">
-        <v>224</v>
-      </c>
-      <c r="E5" s="58"/>
-      <c r="F5" s="59" t="s">
+      <c r="H5" s="55"/>
+      <c r="I5" s="53" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A6" s="66"/>
+      <c r="B6" s="66"/>
+      <c r="C6" s="69"/>
+      <c r="D6" s="53" t="s">
+        <v>225</v>
+      </c>
+      <c r="E6" s="57"/>
+      <c r="F6" s="55" t="s">
         <v>222</v>
       </c>
-      <c r="G5" s="59" t="s">
+      <c r="G6" s="55" t="s">
+        <v>226</v>
+      </c>
+      <c r="H6" s="55"/>
+      <c r="I6" s="53" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="33" x14ac:dyDescent="0.15">
+      <c r="A7" s="67"/>
+      <c r="B7" s="66"/>
+      <c r="C7" s="68" t="s">
+        <v>227</v>
+      </c>
+      <c r="D7" s="53" t="s">
+        <v>245</v>
+      </c>
+      <c r="E7" s="54" t="s">
+        <v>247</v>
+      </c>
+      <c r="F7" s="55" t="s">
+        <v>242</v>
+      </c>
+      <c r="G7" s="55" t="s">
+        <v>226</v>
+      </c>
+      <c r="H7" s="55"/>
+      <c r="I7" s="53" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="33" x14ac:dyDescent="0.15">
+      <c r="A8" s="58"/>
+      <c r="B8" s="56"/>
+      <c r="C8" s="69"/>
+      <c r="D8" s="53" t="s">
+        <v>248</v>
+      </c>
+      <c r="E8" s="54" t="s">
+        <v>246</v>
+      </c>
+      <c r="F8" s="55" t="s">
+        <v>242</v>
+      </c>
+      <c r="G8" s="55" t="s">
+        <v>226</v>
+      </c>
+      <c r="H8" s="55"/>
+      <c r="I8" s="53" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="33" x14ac:dyDescent="0.15">
+      <c r="A9" s="58"/>
+      <c r="B9" s="56"/>
+      <c r="C9" s="73"/>
+      <c r="D9" s="53" t="s">
+        <v>243</v>
+      </c>
+      <c r="E9" s="54" t="s">
+        <v>249</v>
+      </c>
+      <c r="F9" s="55" t="s">
+        <v>244</v>
+      </c>
+      <c r="G9" s="55" t="s">
+        <v>226</v>
+      </c>
+      <c r="H9" s="55"/>
+      <c r="I9" s="53" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A10" s="70">
+        <v>3</v>
+      </c>
+      <c r="B10" s="71" t="s">
+        <v>228</v>
+      </c>
+      <c r="C10" s="72" t="s">
+        <v>229</v>
+      </c>
+      <c r="D10" s="59" t="s">
+        <v>230</v>
+      </c>
+      <c r="E10" s="60"/>
+      <c r="F10" s="61" t="s">
+        <v>231</v>
+      </c>
+      <c r="G10" s="61" t="s">
         <v>223</v>
       </c>
-      <c r="H5" s="59"/>
-      <c r="I5" s="57"/>
-    </row>
-    <row r="6" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A6" s="60"/>
-      <c r="B6" s="60"/>
-      <c r="C6" s="61"/>
-      <c r="D6" s="57" t="s">
-        <v>225</v>
-      </c>
-      <c r="E6" s="62"/>
-      <c r="F6" s="59" t="s">
-        <v>222</v>
-      </c>
-      <c r="G6" s="59" t="s">
+      <c r="H10" s="61"/>
+      <c r="I10" s="62"/>
+    </row>
+    <row r="11" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A11" s="70"/>
+      <c r="B11" s="71"/>
+      <c r="C11" s="72"/>
+      <c r="D11" s="60" t="s">
+        <v>232</v>
+      </c>
+      <c r="E11" s="60"/>
+      <c r="F11" s="61" t="s">
+        <v>234</v>
+      </c>
+      <c r="G11" s="61" t="s">
         <v>226</v>
       </c>
-      <c r="H6" s="59"/>
-      <c r="I6" s="57"/>
-    </row>
-    <row r="7" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A7" s="63"/>
-      <c r="B7" s="60"/>
-      <c r="C7" s="64" t="s">
-        <v>227</v>
-      </c>
-      <c r="D7" s="57" t="s">
-        <v>228</v>
-      </c>
-      <c r="E7" s="58"/>
-      <c r="F7" s="59" t="s">
-        <v>222</v>
-      </c>
-      <c r="G7" s="59" t="s">
+      <c r="H11" s="61"/>
+      <c r="I11" s="60"/>
+    </row>
+    <row r="12" spans="1:9" ht="33" x14ac:dyDescent="0.15">
+      <c r="A12" s="70"/>
+      <c r="B12" s="71"/>
+      <c r="C12" s="74" t="s">
+        <v>233</v>
+      </c>
+      <c r="D12" s="59" t="s">
+        <v>245</v>
+      </c>
+      <c r="E12" s="59" t="s">
+        <v>247</v>
+      </c>
+      <c r="F12" s="61" t="s">
+        <v>234</v>
+      </c>
+      <c r="G12" s="61" t="s">
         <v>223</v>
       </c>
-      <c r="H7" s="59"/>
-      <c r="I7" s="57"/>
-    </row>
-    <row r="8" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A8" s="65">
-        <v>3</v>
-      </c>
-      <c r="B8" s="66" t="s">
-        <v>229</v>
-      </c>
-      <c r="C8" s="67" t="s">
-        <v>230</v>
-      </c>
-      <c r="D8" s="68" t="s">
-        <v>231</v>
-      </c>
-      <c r="E8" s="69"/>
-      <c r="F8" s="70" t="s">
-        <v>232</v>
-      </c>
-      <c r="G8" s="70" t="s">
+      <c r="H12" s="61"/>
+      <c r="I12" s="60" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="33" x14ac:dyDescent="0.15">
+      <c r="A13" s="70"/>
+      <c r="B13" s="71"/>
+      <c r="C13" s="75"/>
+      <c r="D13" s="59" t="s">
+        <v>248</v>
+      </c>
+      <c r="E13" s="59" t="s">
+        <v>246</v>
+      </c>
+      <c r="F13" s="61" t="s">
+        <v>234</v>
+      </c>
+      <c r="G13" s="61" t="s">
         <v>223</v>
       </c>
-      <c r="H8" s="70"/>
-      <c r="I8" s="71"/>
-    </row>
-    <row r="9" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A9" s="65"/>
-      <c r="B9" s="66"/>
-      <c r="C9" s="67"/>
-      <c r="D9" s="69" t="s">
-        <v>233</v>
-      </c>
-      <c r="E9" s="69"/>
-      <c r="F9" s="70" t="s">
-        <v>232</v>
-      </c>
-      <c r="G9" s="70" t="s">
-        <v>226</v>
-      </c>
-      <c r="H9" s="70"/>
-      <c r="I9" s="69"/>
-    </row>
-    <row r="10" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A10" s="65"/>
-      <c r="B10" s="66"/>
-      <c r="C10" s="70" t="s">
+      <c r="H13" s="61"/>
+      <c r="I13" s="60" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="33" x14ac:dyDescent="0.15">
+      <c r="A14" s="70"/>
+      <c r="B14" s="71"/>
+      <c r="C14" s="76"/>
+      <c r="D14" s="59" t="s">
+        <v>243</v>
+      </c>
+      <c r="E14" s="59" t="s">
+        <v>249</v>
+      </c>
+      <c r="F14" s="61" t="s">
         <v>234</v>
       </c>
-      <c r="D10" s="72" t="s">
+      <c r="G14" s="61" t="s">
+        <v>253</v>
+      </c>
+      <c r="H14" s="61"/>
+      <c r="I14" s="60" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A15" s="70"/>
+      <c r="B15" s="71"/>
+      <c r="C15" s="61" t="s">
         <v>235</v>
       </c>
-      <c r="E10" s="70"/>
-      <c r="F10" s="70" t="s">
+      <c r="D15" s="59"/>
+      <c r="E15" s="59"/>
+      <c r="F15" s="61" t="s">
         <v>236</v>
       </c>
-      <c r="G10" s="70" t="s">
+      <c r="G15" s="61" t="s">
         <v>223</v>
       </c>
-      <c r="H10" s="70"/>
-      <c r="I10" s="70"/>
-    </row>
-    <row r="11" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A11" s="65"/>
-      <c r="B11" s="66"/>
-      <c r="C11" s="70" t="s">
+      <c r="H15" s="61"/>
+      <c r="I15" s="60"/>
+    </row>
+    <row r="16" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A16" s="70"/>
+      <c r="B16" s="71"/>
+      <c r="C16" s="61" t="s">
         <v>237</v>
       </c>
-      <c r="D11" s="68"/>
-      <c r="E11" s="68"/>
-      <c r="F11" s="70" t="s">
+      <c r="D16" s="59"/>
+      <c r="E16" s="59"/>
+      <c r="F16" s="61" t="s">
+        <v>236</v>
+      </c>
+      <c r="G16" s="61" t="s">
+        <v>223</v>
+      </c>
+      <c r="H16" s="61"/>
+      <c r="I16" s="60"/>
+    </row>
+    <row r="17" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A17" s="70"/>
+      <c r="B17" s="71"/>
+      <c r="C17" s="61" t="s">
         <v>238</v>
       </c>
-      <c r="G11" s="70" t="s">
+      <c r="D17" s="60"/>
+      <c r="E17" s="60"/>
+      <c r="F17" s="61" t="s">
+        <v>236</v>
+      </c>
+      <c r="G17" s="61" t="s">
         <v>223</v>
       </c>
-      <c r="H11" s="70"/>
-      <c r="I11" s="68"/>
-    </row>
-    <row r="12" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A12" s="65"/>
-      <c r="B12" s="66"/>
-      <c r="C12" s="70" t="s">
-        <v>239</v>
-      </c>
-      <c r="D12" s="68"/>
-      <c r="E12" s="68"/>
-      <c r="F12" s="70" t="s">
-        <v>238</v>
-      </c>
-      <c r="G12" s="70" t="s">
-        <v>223</v>
-      </c>
-      <c r="H12" s="70"/>
-      <c r="I12" s="68"/>
-    </row>
-    <row r="13" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A13" s="65"/>
-      <c r="B13" s="66"/>
-      <c r="C13" s="70" t="s">
-        <v>240</v>
-      </c>
-      <c r="D13" s="69"/>
-      <c r="E13" s="69"/>
-      <c r="F13" s="70" t="s">
-        <v>238</v>
-      </c>
-      <c r="G13" s="70" t="s">
-        <v>223</v>
-      </c>
-      <c r="H13" s="70"/>
-      <c r="I13" s="68"/>
+      <c r="H17" s="61"/>
+      <c r="I17" s="60"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="9">
+    <mergeCell ref="C12:C14"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="B4:B7"/>
     <mergeCell ref="C4:C6"/>
-    <mergeCell ref="A8:A13"/>
-    <mergeCell ref="B8:B13"/>
-    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="A10:A17"/>
+    <mergeCell ref="B10:B17"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="C7:C9"/>
   </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/VersionRecords/Version3.0.3/版本Bug和特性计划及评审表v3.0.3.xlsx
+++ b/VersionRecords/Version3.0.3/版本Bug和特性计划及评审表v3.0.3.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Workspace\mogo_git\Mogo_Doc\VersionRecords\Version3.0.3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\worktools\GitRepository\Mogo_Doc\VersionRecords\Version3.0.3\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="60" windowWidth="28695" windowHeight="13005" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="60" windowWidth="28695" windowHeight="13005"/>
   </bookViews>
   <sheets>
     <sheet name="版本3.0.3 新特性|Fix Bug" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="557" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="559" uniqueCount="254">
   <si>
     <t>No</t>
   </si>
@@ -1520,6 +1520,21 @@
     <xf numFmtId="0" fontId="20" fillId="8" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1552,21 +1567,6 @@
     </xf>
     <xf numFmtId="0" fontId="20" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -1923,8 +1923,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T219"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="N33" sqref="N33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3418,9 +3418,15 @@
       <c r="L31" s="16" t="s">
         <v>167</v>
       </c>
-      <c r="M31" s="25"/>
-      <c r="N31" s="17"/>
-      <c r="O31" s="25"/>
+      <c r="M31" s="25" t="s">
+        <v>138</v>
+      </c>
+      <c r="N31" s="17">
+        <v>42452</v>
+      </c>
+      <c r="O31" s="25" t="s">
+        <v>139</v>
+      </c>
       <c r="P31" s="26"/>
       <c r="Q31" s="26"/>
       <c r="R31" s="40" t="s">
@@ -8025,7 +8031,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
@@ -8039,22 +8045,22 @@
     <col min="6" max="6" width="15.125" style="50" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.625" style="50" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.625" style="50" customWidth="1"/>
-    <col min="9" max="9" width="53.625" style="78" customWidth="1"/>
+    <col min="9" max="9" width="53.625" style="64" customWidth="1"/>
     <col min="10" max="16384" width="9" style="50"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="20.25" x14ac:dyDescent="0.15">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="68" t="s">
         <v>239</v>
       </c>
-      <c r="B1" s="64"/>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
-      <c r="E1" s="64"/>
-      <c r="F1" s="64"/>
-      <c r="G1" s="64"/>
-      <c r="H1" s="64"/>
-      <c r="I1" s="64"/>
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
+      <c r="H1" s="69"/>
+      <c r="I1" s="69"/>
     </row>
     <row r="2" spans="1:9" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A2" s="51" t="s">
@@ -8081,7 +8087,7 @@
       <c r="H2" s="51" t="s">
         <v>214</v>
       </c>
-      <c r="I2" s="77" t="s">
+      <c r="I2" s="63" t="s">
         <v>215</v>
       </c>
     </row>
@@ -8102,16 +8108,16 @@
       <c r="F3" s="51"/>
       <c r="G3" s="51"/>
       <c r="H3" s="51"/>
-      <c r="I3" s="77"/>
+      <c r="I3" s="63"/>
     </row>
     <row r="4" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A4" s="65">
+      <c r="A4" s="70">
         <v>2</v>
       </c>
-      <c r="B4" s="65" t="s">
+      <c r="B4" s="70" t="s">
         <v>219</v>
       </c>
-      <c r="C4" s="68" t="s">
+      <c r="C4" s="73" t="s">
         <v>220</v>
       </c>
       <c r="D4" s="53" t="s">
@@ -8130,9 +8136,9 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A5" s="66"/>
-      <c r="B5" s="66"/>
-      <c r="C5" s="69"/>
+      <c r="A5" s="71"/>
+      <c r="B5" s="71"/>
+      <c r="C5" s="74"/>
       <c r="D5" s="53" t="s">
         <v>224</v>
       </c>
@@ -8149,9 +8155,9 @@
       </c>
     </row>
     <row r="6" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A6" s="66"/>
-      <c r="B6" s="66"/>
-      <c r="C6" s="69"/>
+      <c r="A6" s="71"/>
+      <c r="B6" s="71"/>
+      <c r="C6" s="74"/>
       <c r="D6" s="53" t="s">
         <v>225</v>
       </c>
@@ -8168,9 +8174,9 @@
       </c>
     </row>
     <row r="7" spans="1:9" ht="33" x14ac:dyDescent="0.15">
-      <c r="A7" s="67"/>
-      <c r="B7" s="66"/>
-      <c r="C7" s="68" t="s">
+      <c r="A7" s="72"/>
+      <c r="B7" s="71"/>
+      <c r="C7" s="73" t="s">
         <v>227</v>
       </c>
       <c r="D7" s="53" t="s">
@@ -8193,7 +8199,7 @@
     <row r="8" spans="1:9" ht="33" x14ac:dyDescent="0.15">
       <c r="A8" s="58"/>
       <c r="B8" s="56"/>
-      <c r="C8" s="69"/>
+      <c r="C8" s="74"/>
       <c r="D8" s="53" t="s">
         <v>248</v>
       </c>
@@ -8214,7 +8220,7 @@
     <row r="9" spans="1:9" ht="33" x14ac:dyDescent="0.15">
       <c r="A9" s="58"/>
       <c r="B9" s="56"/>
-      <c r="C9" s="73"/>
+      <c r="C9" s="78"/>
       <c r="D9" s="53" t="s">
         <v>243</v>
       </c>
@@ -8233,13 +8239,13 @@
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A10" s="70">
+      <c r="A10" s="75">
         <v>3</v>
       </c>
-      <c r="B10" s="71" t="s">
+      <c r="B10" s="76" t="s">
         <v>228</v>
       </c>
-      <c r="C10" s="72" t="s">
+      <c r="C10" s="77" t="s">
         <v>229</v>
       </c>
       <c r="D10" s="59" t="s">
@@ -8256,9 +8262,9 @@
       <c r="I10" s="62"/>
     </row>
     <row r="11" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A11" s="70"/>
-      <c r="B11" s="71"/>
-      <c r="C11" s="72"/>
+      <c r="A11" s="75"/>
+      <c r="B11" s="76"/>
+      <c r="C11" s="77"/>
       <c r="D11" s="60" t="s">
         <v>232</v>
       </c>
@@ -8273,9 +8279,9 @@
       <c r="I11" s="60"/>
     </row>
     <row r="12" spans="1:9" ht="33" x14ac:dyDescent="0.15">
-      <c r="A12" s="70"/>
-      <c r="B12" s="71"/>
-      <c r="C12" s="74" t="s">
+      <c r="A12" s="75"/>
+      <c r="B12" s="76"/>
+      <c r="C12" s="65" t="s">
         <v>233</v>
       </c>
       <c r="D12" s="59" t="s">
@@ -8296,9 +8302,9 @@
       </c>
     </row>
     <row r="13" spans="1:9" ht="33" x14ac:dyDescent="0.15">
-      <c r="A13" s="70"/>
-      <c r="B13" s="71"/>
-      <c r="C13" s="75"/>
+      <c r="A13" s="75"/>
+      <c r="B13" s="76"/>
+      <c r="C13" s="66"/>
       <c r="D13" s="59" t="s">
         <v>248</v>
       </c>
@@ -8317,9 +8323,9 @@
       </c>
     </row>
     <row r="14" spans="1:9" ht="33" x14ac:dyDescent="0.15">
-      <c r="A14" s="70"/>
-      <c r="B14" s="71"/>
-      <c r="C14" s="76"/>
+      <c r="A14" s="75"/>
+      <c r="B14" s="76"/>
+      <c r="C14" s="67"/>
       <c r="D14" s="59" t="s">
         <v>243</v>
       </c>
@@ -8338,8 +8344,8 @@
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A15" s="70"/>
-      <c r="B15" s="71"/>
+      <c r="A15" s="75"/>
+      <c r="B15" s="76"/>
       <c r="C15" s="61" t="s">
         <v>235</v>
       </c>
@@ -8355,8 +8361,8 @@
       <c r="I15" s="60"/>
     </row>
     <row r="16" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A16" s="70"/>
-      <c r="B16" s="71"/>
+      <c r="A16" s="75"/>
+      <c r="B16" s="76"/>
       <c r="C16" s="61" t="s">
         <v>237</v>
       </c>
@@ -8372,8 +8378,8 @@
       <c r="I16" s="60"/>
     </row>
     <row r="17" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A17" s="70"/>
-      <c r="B17" s="71"/>
+      <c r="A17" s="75"/>
+      <c r="B17" s="76"/>
       <c r="C17" s="61" t="s">
         <v>238</v>
       </c>
